--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3121782.321189562</v>
+        <v>3286866.843060563</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577128</v>
+        <v>612367.9462114761</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4665985.481431718</v>
+        <v>4918303.77788777</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.37564008961265</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -665,19 +667,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>95.62581518521282</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>72.84679600279988</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.636020763642361</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -896,13 +898,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>163.2193073981034</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>355.634905317496</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>76.75914552461514</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1069,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1111,16 +1113,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>26.21051072828035</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1148,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>146.5653248725136</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1184,22 +1186,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>95.44689271608202</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>74.56036873922037</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1348,7 +1350,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>172.734109264757</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>329.4802421881333</v>
+        <v>420.872939992494</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>111.6459878886688</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>58.31517967031825</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1579,22 +1581,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
-        <v>202.3605105981079</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446584</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>33.12336333888572</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1816,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>235.3585395425703</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1850,19 +1852,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>159.3990729342354</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2017,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>45.71241591344796</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,19 +2089,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>58.02960124414425</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2254,7 +2256,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.10005921998004</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2476,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>233.0075049147208</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>94.81937421946502</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2716,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>75.33365464461274</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>38.98988033274849</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2965,7 +2967,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3013,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>122.9177036806385</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3190,10 +3192,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>189.5733066869315</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>78.16614128474214</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>38.19898922525562</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3487,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>205.3931121155064</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>108.3150987014993</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3755,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>197.6040467920401</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>144.9830652117416</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3910,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>123.9086344760396</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3992,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4034,13 +4036,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>28.97303760286378</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4135,13 +4137,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>50.70418761558103</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1667.229969037506</v>
+        <v>826.0424325316596</v>
       </c>
       <c r="C2" t="n">
-        <v>1644.36964309121</v>
+        <v>803.1821065853638</v>
       </c>
       <c r="D2" t="n">
-        <v>1221.07702227621</v>
+        <v>379.8894857703641</v>
       </c>
       <c r="E2" t="n">
-        <v>795.1000824240679</v>
+        <v>357.9529499586257</v>
       </c>
       <c r="F2" t="n">
-        <v>774.0163046538721</v>
+        <v>336.86917218843</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6772422433207</v>
+        <v>336.5705138182827</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="K2" t="n">
-        <v>357.6855680512415</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="L2" t="n">
-        <v>357.6855680512415</v>
+        <v>517.6410595347463</v>
       </c>
       <c r="M2" t="n">
-        <v>357.6855680512415</v>
+        <v>996.5799837771751</v>
       </c>
       <c r="N2" t="n">
-        <v>814.4714747539724</v>
+        <v>1475.518908019604</v>
       </c>
       <c r="O2" t="n">
-        <v>1271.257381456703</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489015</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1609.813899533648</v>
       </c>
       <c r="U2" t="n">
-        <v>1741.232328914477</v>
+        <v>1351.45899013006</v>
       </c>
       <c r="V2" t="n">
-        <v>1741.232328914477</v>
+        <v>1254.867257619744</v>
       </c>
       <c r="W2" t="n">
-        <v>1741.232328914477</v>
+        <v>1254.867257619744</v>
       </c>
       <c r="X2" t="n">
-        <v>1733.552734122628</v>
+        <v>1247.187662827895</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.255868117923</v>
+        <v>841.8503927827857</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668196</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843244</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996094</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725466</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.8489990554507</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.7952272730548</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353644</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>133.8657769972762</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>405.5632662768672</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273854</v>
+        <v>884.5021905192962</v>
       </c>
       <c r="L3" t="n">
-        <v>44.35863542273854</v>
+        <v>1363.441114761725</v>
       </c>
       <c r="M3" t="n">
-        <v>501.1445421254694</v>
+        <v>1842.380039004154</v>
       </c>
       <c r="N3" t="n">
-        <v>501.1445421254694</v>
+        <v>1853.087454531171</v>
       </c>
       <c r="O3" t="n">
-        <v>850.0084995511718</v>
+        <v>1853.087454531171</v>
       </c>
       <c r="P3" t="n">
-        <v>1306.794406253903</v>
+        <v>1853.087454531171</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.087454531171</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177129</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474807</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394444</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.16124653371</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366927</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.16252313359</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868823</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>685.0352107310263</v>
+        <v>422.2892318563599</v>
       </c>
       <c r="C4" t="n">
-        <v>685.0352107310263</v>
+        <v>422.2892318563599</v>
       </c>
       <c r="D4" t="n">
-        <v>685.0352107310263</v>
+        <v>422.2892318563599</v>
       </c>
       <c r="E4" t="n">
-        <v>518.8270048838798</v>
+        <v>256.0810260092135</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>256.0810260092135</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>256.0810260092135</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>112.2847575173679</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="K4" t="n">
-        <v>263.4395936666639</v>
+        <v>265.2297364981547</v>
       </c>
       <c r="L4" t="n">
-        <v>303.8948463526241</v>
+        <v>520.4021181679234</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>911.5879131381741</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1289.07942401421</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1644.507552693973</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R4" t="n">
-        <v>1842.936975805334</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S4" t="n">
-        <v>1672.801928324469</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="T4" t="n">
-        <v>1672.801928324469</v>
+        <v>1691.767416841774</v>
       </c>
       <c r="U4" t="n">
-        <v>1392.617479824774</v>
+        <v>1411.582968342079</v>
       </c>
       <c r="V4" t="n">
-        <v>1392.617479824774</v>
+        <v>1129.871500950107</v>
       </c>
       <c r="W4" t="n">
-        <v>1117.765075997287</v>
+        <v>855.0190971226205</v>
       </c>
       <c r="X4" t="n">
-        <v>875.2011794430919</v>
+        <v>612.4552005684255</v>
       </c>
       <c r="Y4" t="n">
-        <v>875.2011794430919</v>
+        <v>612.4552005684255</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>300.1718298494015</v>
+        <v>972.9074190595575</v>
       </c>
       <c r="C5" t="n">
-        <v>277.3115039031057</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D5" t="n">
-        <v>258.0592871285101</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>93.19129985769854</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>72.10752208750284</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>357.6855680512415</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>814.4714747539724</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>1271.257381456703</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1728.043288159434</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>1482.877419510889</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>1125.388004637139</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W5" t="n">
-        <v>728.9966549374858</v>
+        <v>1349.239422403769</v>
       </c>
       <c r="X5" t="n">
-        <v>721.3170601456371</v>
+        <v>990.0122453153891</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.9797901005275</v>
+        <v>988.7153793106835</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273854</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>475.2419029331441</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M6" t="n">
-        <v>932.027809635875</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>1388.813716338606</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>1845.599623041337</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>862.3382694196545</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C7" t="n">
-        <v>862.3382694196545</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D7" t="n">
-        <v>784.8037789907503</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E7" t="n">
-        <v>618.5955731436038</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U7" t="n">
-        <v>1104.902165973849</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V7" t="n">
-        <v>1104.902165973849</v>
+        <v>1627.873579513855</v>
       </c>
       <c r="W7" t="n">
-        <v>1104.902165973849</v>
+        <v>1353.021175686368</v>
       </c>
       <c r="X7" t="n">
-        <v>862.3382694196545</v>
+        <v>1110.457279132173</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.3382694196545</v>
+        <v>884.1145108219148</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>965.3211864711366</v>
+        <v>716.912797718662</v>
       </c>
       <c r="C8" t="n">
-        <v>538.4204564844366</v>
+        <v>694.0524717723662</v>
       </c>
       <c r="D8" t="n">
-        <v>519.1682397098409</v>
+        <v>270.7598509573664</v>
       </c>
       <c r="E8" t="n">
-        <v>93.19129985769854</v>
+        <v>248.823315145628</v>
       </c>
       <c r="F8" t="n">
-        <v>72.10752208750284</v>
+        <v>227.7395373754323</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>227.440879005285</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>1313.087264683184</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1313.087264683184</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1313.087264683184</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1741.232328914477</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1482.877419510889</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1482.877419510889</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1482.877419510889</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.466416767372</v>
+        <v>1138.058028014898</v>
       </c>
       <c r="Y8" t="n">
-        <v>1385.169550762667</v>
+        <v>732.720757969788</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082674</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L9" t="n">
-        <v>36.91199246082674</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M9" t="n">
-        <v>475.2419029331441</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N9" t="n">
-        <v>932.027809635875</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>687.8593711724252</v>
+        <v>864.5940064405311</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8868080513412</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="D10" t="n">
-        <v>352.5700351781119</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>352.5700351781119</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>180.7082609526723</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2102.559135372559</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1859.219787598458</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1579.035339098763</v>
       </c>
       <c r="V10" t="n">
-        <v>930.4232677266201</v>
+        <v>1297.323871706792</v>
       </c>
       <c r="W10" t="n">
-        <v>930.4232677266201</v>
+        <v>1297.323871706792</v>
       </c>
       <c r="X10" t="n">
-        <v>687.8593711724252</v>
+        <v>1054.759975152597</v>
       </c>
       <c r="Y10" t="n">
-        <v>687.8593711724252</v>
+        <v>1054.759975152597</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1979.331244385366</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1552.430514398666</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1129.137893583666</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>703.1609537315236</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>370.3526282889647</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.087708579895</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>600.1541536380309</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>600.1541536380309</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>600.1541536380309</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N11" t="n">
-        <v>1497.14674445515</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>2342.291394605962</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3050.57067376389</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3403.286917194609</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3144.932007791022</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2787.442592917271</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2391.051243217618</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>1979.331244385366</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1979.331244385366</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299951</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299951</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299951</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48424976299951</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="L12" t="n">
-        <v>909.2830578459057</v>
+        <v>3427.437365156755</v>
       </c>
       <c r="M12" t="n">
-        <v>984.1792895263904</v>
+        <v>3427.437365156755</v>
       </c>
       <c r="N12" t="n">
-        <v>1881.171880343509</v>
+        <v>3427.437365156755</v>
       </c>
       <c r="O12" t="n">
-        <v>1881.171880343509</v>
+        <v>4316.918643168226</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.466534306222</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C13" t="n">
-        <v>983.6928091661523</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D13" t="n">
-        <v>820.376036292923</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E13" t="n">
-        <v>654.1678304457765</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>482.306056220337</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>316.0490865145691</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227235</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.723616382436</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.53916788274</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.53916788274</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1755.53916788274</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>1512.975271328545</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>1286.632503018287</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1661.613473753344</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1234.712743766645</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1234.712743766645</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560448</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>100.170072841217</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>815.6783808167161</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1712.670971633835</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2609.663562450954</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3506.656153268073</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3506.656153268073</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268073</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3040.564713664162</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2478.670742630707</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2066.950743798454</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1661.613473753344</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299951</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299951</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>275.4928852935398</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>275.4928852935398</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>275.4928852935398</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>275.4928852935398</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O15" t="n">
-        <v>1164.974163305011</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.0377105676287</v>
+        <v>3874.107496910695</v>
       </c>
       <c r="C16" t="n">
-        <v>676.5797678010774</v>
+        <v>3702.134933789611</v>
       </c>
       <c r="D16" t="n">
-        <v>676.5797678010774</v>
+        <v>3538.818160916382</v>
       </c>
       <c r="E16" t="n">
-        <v>510.371561953931</v>
+        <v>3372.609955069236</v>
       </c>
       <c r="F16" t="n">
-        <v>338.5097877284914</v>
+        <v>3200.748180843796</v>
       </c>
       <c r="G16" t="n">
-        <v>172.2528180227235</v>
+        <v>3034.491211138028</v>
       </c>
       <c r="H16" t="n">
-        <v>172.2528180227235</v>
+        <v>3034.491211138028</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299951</v>
+        <v>2934.722642878304</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102462</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.7415723083</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602721</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S16" t="n">
-        <v>2205.858663863301</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T16" t="n">
-        <v>2205.858663863301</v>
+        <v>4824.7577092045</v>
       </c>
       <c r="U16" t="n">
-        <v>1925.674215363605</v>
+        <v>4544.573260704805</v>
       </c>
       <c r="V16" t="n">
-        <v>1643.962747971634</v>
+        <v>4306.837362176956</v>
       </c>
       <c r="W16" t="n">
-        <v>1369.110344144147</v>
+        <v>4306.837362176956</v>
       </c>
       <c r="X16" t="n">
-        <v>1126.546447589952</v>
+        <v>4064.273465622761</v>
       </c>
       <c r="Y16" t="n">
-        <v>900.2036792796944</v>
+        <v>4064.273465622761</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1983.783825177544</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2988.069926596602</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5558,7 +5560,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5600,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>357.5299206506891</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.68756743822</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>869.7150043171358</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>706.3982314439065</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>540.1900255967601</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5710,13 +5712,13 @@
         <v>1589.056897064296</v>
       </c>
       <c r="W19" t="n">
-        <v>1314.204493236809</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.030335748478</v>
+        <v>1346.493000510101</v>
       </c>
       <c r="Y19" t="n">
-        <v>1041.68756743822</v>
+        <v>1346.493000510101</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2184.700581617281</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3160.951640103982</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>4006.096290254794</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5835,16 +5837,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>941.9189991784958</v>
+        <v>806.1502575345799</v>
       </c>
       <c r="C22" t="n">
-        <v>769.9464360574118</v>
+        <v>747.5344987021109</v>
       </c>
       <c r="D22" t="n">
-        <v>606.6296631841825</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E22" t="n">
-        <v>440.421457337036</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y22" t="n">
-        <v>941.9189991784958</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P23" t="n">
-        <v>4935.721337874071</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>4362.434577686964</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.617659878699</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1013.511272808982</v>
+        <v>850.3052888313966</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F25" t="n">
         <v>512.1245198631661</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1877.219577262616</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1597.035128762921</v>
       </c>
       <c r="V25" t="n">
-        <v>1446.241138075242</v>
+        <v>1315.323661370949</v>
       </c>
       <c r="W25" t="n">
-        <v>1446.241138075242</v>
+        <v>1040.471257543462</v>
       </c>
       <c r="X25" t="n">
-        <v>1203.677241521047</v>
+        <v>1040.471257543462</v>
       </c>
       <c r="Y25" t="n">
-        <v>1203.677241521047</v>
+        <v>1040.471257543462</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6233,16 +6235,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>3950.770911629316</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6312,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>991.7839914173002</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3278.556980224822</v>
+        <v>3580.065217070226</v>
       </c>
       <c r="C28" t="n">
-        <v>3106.584417103738</v>
+        <v>3408.092653949142</v>
       </c>
       <c r="D28" t="n">
-        <v>3106.584417103738</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="E28" t="n">
-        <v>3106.584417103738</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H28" t="n">
         <v>2934.722642878299</v>
@@ -6409,25 +6411,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S28" t="n">
-        <v>5017.717281294595</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T28" t="n">
-        <v>4774.377933520494</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U28" t="n">
-        <v>4494.193485020799</v>
+        <v>4795.701721866203</v>
       </c>
       <c r="V28" t="n">
-        <v>4212.482017628828</v>
+        <v>4513.990254474232</v>
       </c>
       <c r="W28" t="n">
-        <v>3937.629613801341</v>
+        <v>4239.137850646744</v>
       </c>
       <c r="X28" t="n">
-        <v>3695.065717247146</v>
+        <v>3996.573954092549</v>
       </c>
       <c r="Y28" t="n">
-        <v>3468.722948936888</v>
+        <v>3770.231185782291</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>4025.820723818557</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>742.8905159778161</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>742.8905159778161</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>579.5737431045868</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>540.1900255967601</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
         <v>202.0712816655526</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.8905159778161</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3436.220184719758</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C34" t="n">
-        <v>3264.247621598674</v>
+        <v>2986.82914530688</v>
       </c>
       <c r="D34" t="n">
-        <v>3100.930848725445</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E34" t="n">
         <v>2934.722642878299</v>
@@ -6898,10 +6900,10 @@
         <v>3817.874342004482</v>
       </c>
       <c r="X34" t="n">
-        <v>3626.386153431824</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y34" t="n">
-        <v>3626.386153431824</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,37 +6937,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4798.855966881186</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N36" t="n">
-        <v>939.1015214887346</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.582799500206</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>786.1193363033792</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C37" t="n">
-        <v>786.1193363033792</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D37" t="n">
-        <v>622.8025634301499</v>
+        <v>181.2584116732448</v>
       </c>
       <c r="E37" t="n">
-        <v>622.8025634301499</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>450.9407892047103</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>284.6838194989425</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>140.8875510070968</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.628073325703</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.628073325703</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>976.2853050154449</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,31 +7174,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153427</v>
       </c>
       <c r="K38" t="n">
-        <v>464.9061722227241</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
         <v>5010.768376164567</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7260,19 +7262,19 @@
         <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U40" t="n">
-        <v>1661.773555548329</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V40" t="n">
-        <v>1380.062088156358</v>
+        <v>1953.965660114159</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.20968432887</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>862.6457877746757</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>636.3030194644177</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1985.713973172509</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1985.713973172509</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.421352357509</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1136.444412505366</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>711.3202306947667</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>306.9811682842153</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299951</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>72.48424976299951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>72.48424976299951</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>969.4768405801185</v>
+        <v>2856.963518260712</v>
       </c>
       <c r="N41" t="n">
-        <v>1866.469431397237</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="O41" t="n">
-        <v>2342.291394605962</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.57067376389</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>3403.286917194609</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3144.932007791022</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2787.442592917271</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2391.051243217618</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2391.051243217618</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>1985.713973172509</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491135</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>351.6283820045024</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>351.6283820045024</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L42" t="n">
-        <v>351.6283820045024</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M42" t="n">
-        <v>351.6283820045024</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N42" t="n">
-        <v>700.8286864422321</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O42" t="n">
-        <v>700.8286864422321</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P42" t="n">
-        <v>1417.02640348073</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2191.402322560308</v>
+        <v>1067.07923602298</v>
       </c>
       <c r="C43" t="n">
-        <v>2044.954781942387</v>
+        <v>895.1066729018962</v>
       </c>
       <c r="D43" t="n">
-        <v>1881.638009069158</v>
+        <v>731.7899000286669</v>
       </c>
       <c r="E43" t="n">
-        <v>1715.429803222011</v>
+        <v>565.5816941815204</v>
       </c>
       <c r="F43" t="n">
-        <v>1543.568028996572</v>
+        <v>393.7199199560808</v>
       </c>
       <c r="G43" t="n">
-        <v>1543.568028996572</v>
+        <v>227.462950250313</v>
       </c>
       <c r="H43" t="n">
-        <v>1543.568028996572</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>1443.799460736848</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>1501.290788961006</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>1727.818390166843</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>2082.507711461264</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>2473.693506431514</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>2851.18501730755</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>3206.613145987313</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>3497.212357909214</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>3624.212488149976</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>3577.173874837149</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>3407.038827356284</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>3407.038827356284</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U43" t="n">
-        <v>3407.038827356284</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V43" t="n">
-        <v>3125.327359964313</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W43" t="n">
-        <v>2850.474956136826</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X43" t="n">
-        <v>2607.911059582631</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y43" t="n">
-        <v>2381.568291272373</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.722035079522</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1362.821305092822</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1362.821305092822</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>936.8443652406795</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>435.087708579895</v>
+        <v>1054.158777558266</v>
       </c>
       <c r="L44" t="n">
-        <v>600.1541536380309</v>
+        <v>1983.783825177543</v>
       </c>
       <c r="M44" t="n">
-        <v>600.1541536380309</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N44" t="n">
-        <v>1497.14674445515</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.291394605962</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.57067376389</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>3040.564713664162</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3040.564713664162</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2644.173363964509</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2614.907669416162</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.570399371052</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>662.9691763313391</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>662.9691763313391</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>662.9691763313391</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N45" t="n">
-        <v>1559.961767148458</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O45" t="n">
-        <v>1559.961767148458</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>487.9108607400087</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>487.9108607400087</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>487.9108607400087</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E46" t="n">
-        <v>487.9108607400087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>316.0490865145691</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>316.0490865145691</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227235</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.723616382436</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1792.384268608336</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1512.19982010864</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1230.488352716669</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>955.6359488891819</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>904.4195977623324</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>678.0768294520744</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>359.7783135124</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865915</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540534004</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>521.0563139884146</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>501.6211175340749</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873019</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681981</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662966</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>32.15859945295303</v>
       </c>
       <c r="O3" t="n">
-        <v>375.55972550576</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8140,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>62.78265149768123</v>
+        <v>279.668640370215</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>359.7783135124</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>547.9365584046774</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>457.7507104621139</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>267.4386025673074</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8371,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>62.78265149768123</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8386,7 +8388,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8453,25 +8455,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>455.2721730654569</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>177.6973456537768</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>465.8542658379011</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8623,10 +8625,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>357.6439066834785</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>152.9025226039384</v>
@@ -8687,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>202.4983836818153</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.33274487194</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8772,25 +8774,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>137.2046649808196</v>
       </c>
       <c r="M12" t="n">
-        <v>98.74953978554494</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>927.3961502510356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>57.38543734237187</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>236.8553498857486</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>227.4584616419598</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9015,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>418.2054371258495</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>849.7962292804214</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>280.9020403556215</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>920.2011215599057</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9261,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>578.380983679471</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9647,19 +9649,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.60750039798609</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O24" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9881,19 +9883,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N26" t="n">
-        <v>882.1738474735962</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>481.4282914131709</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10121,19 +10123,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685286</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10361,10 +10363,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P32" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>951.5880457335786</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>236.8553498857486</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>121.8329647736524</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10668,25 +10670,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>105.0107851302144</v>
+        <v>658.0402665189952</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608534</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>586.4197136125407</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10908,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>475.2939470053066</v>
+        <v>125.4645343931002</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369257</v>
+        <v>791.8999401147979</v>
       </c>
       <c r="N41" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>518.0192050214025</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11139,7 +11141,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>375.1268140734642</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11148,7 +11150,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>374.0706084536727</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11297,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>630.9692526488922</v>
       </c>
       <c r="L44" t="n">
-        <v>205.0458253196289</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.33274487194</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11376,28 +11378,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>927.3961502510356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P45" t="n">
-        <v>263.3777130334633</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>91.39269780436047</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>58.60684960120437</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>103.3684254741787</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>190.0669256045487</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>137.1294741509874</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>43.53581317548108</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>28.8652360907096</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>194.425841675205</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>112.2232362457289</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.9792814071753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>7.898449381638187</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0749784985863</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24649,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>202.048949370086</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>125.5562434559265</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>117.2205539080144</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>50.56495090172137</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>86.37998250393284</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>60.57189335187117</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>71.98949189919239</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>97.2856479486654</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>25.26977227813154</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>18.44967133088754</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>378.6297612410664</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>189.4340699730719</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>335167.1301756615</v>
+        <v>421522.8023530853</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>335167.1301756615</v>
+        <v>421522.8023530853</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>421522.8023530855</v>
+        <v>421522.8023530854</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>335167.1301756616</v>
+        <v>421522.8023530854</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>335167.1301756615</v>
+        <v>421522.8023530854</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>582442.6680111634</v>
+        <v>582442.6680111636</v>
       </c>
       <c r="C2" t="n">
-        <v>582442.6680111632</v>
+        <v>582442.6680111628</v>
       </c>
       <c r="D2" t="n">
-        <v>582442.6680111632</v>
+        <v>582442.6680111629</v>
       </c>
       <c r="E2" t="n">
-        <v>446889.5069008819</v>
+        <v>562030.4031374475</v>
       </c>
       <c r="F2" t="n">
-        <v>446889.506900882</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="G2" t="n">
-        <v>562030.4031374477</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="H2" t="n">
         <v>562030.4031374478</v>
       </c>
       <c r="I2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374468</v>
       </c>
       <c r="J2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="K2" t="n">
-        <v>562030.4031374471</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="L2" t="n">
-        <v>562030.4031374473</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="M2" t="n">
-        <v>562030.4031374475</v>
+        <v>562030.4031374477</v>
       </c>
       <c r="N2" t="n">
         <v>562030.4031374477</v>
       </c>
       <c r="O2" t="n">
-        <v>446889.506900882</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="P2" t="n">
-        <v>446889.5069008818</v>
+        <v>562030.4031374474</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361204</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096018</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701965</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161210.2618115458</v>
+        <v>156089.064077723</v>
       </c>
       <c r="C4" t="n">
-        <v>161210.2618115457</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="D4" t="n">
-        <v>161210.2618115457</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>623.8421757123211</v>
+        <v>800.0602599433114</v>
       </c>
       <c r="F4" t="n">
-        <v>623.8421757123211</v>
+        <v>800.0602599432362</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433113</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599432799</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433155</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
         <v>800.0602599433671</v>
@@ -26448,16 +26450,16 @@
         <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433669</v>
       </c>
       <c r="N4" t="n">
+        <v>800.060259943367</v>
+      </c>
+      <c r="O4" t="n">
         <v>800.0602599433671</v>
       </c>
-      <c r="O4" t="n">
-        <v>623.8421757123211</v>
-      </c>
       <c r="P4" t="n">
-        <v>623.8421757123211</v>
+        <v>800.0602599433671</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216129</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>204925.9713112688</v>
+        <v>201187.6850416879</v>
       </c>
       <c r="C6" t="n">
-        <v>359551.6919293893</v>
+        <v>352081.8339678297</v>
       </c>
       <c r="D6" t="n">
-        <v>359551.6919293893</v>
+        <v>375488.6676414418</v>
       </c>
       <c r="E6" t="n">
-        <v>258413.9668956882</v>
+        <v>267740.924132434</v>
       </c>
       <c r="F6" t="n">
-        <v>391177.63490529</v>
+        <v>483480.2806890744</v>
       </c>
       <c r="G6" t="n">
-        <v>381320.3605947646</v>
+        <v>483480.2806890744</v>
       </c>
       <c r="H6" t="n">
+        <v>483480.2806890748</v>
+      </c>
+      <c r="I6" t="n">
+        <v>483480.2806890738</v>
+      </c>
+      <c r="J6" t="n">
+        <v>356903.0121087852</v>
+      </c>
+      <c r="K6" t="n">
+        <v>464833.6803320546</v>
+      </c>
+      <c r="L6" t="n">
+        <v>483480.2806890741</v>
+      </c>
+      <c r="M6" t="n">
+        <v>303416.409233907</v>
+      </c>
+      <c r="N6" t="n">
         <v>483480.2806890747</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>483480.2806890743</v>
+      </c>
+      <c r="P6" t="n">
         <v>483480.2806890744</v>
-      </c>
-      <c r="J6" t="n">
-        <v>362757.7637463175</v>
-      </c>
-      <c r="K6" t="n">
-        <v>483480.280689074</v>
-      </c>
-      <c r="L6" t="n">
-        <v>483480.2806890743</v>
-      </c>
-      <c r="M6" t="n">
-        <v>372670.9205799412</v>
-      </c>
-      <c r="N6" t="n">
-        <v>483480.2806890746</v>
-      </c>
-      <c r="O6" t="n">
-        <v>391177.63490529</v>
-      </c>
-      <c r="P6" t="n">
-        <v>391177.6349052899</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162557</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162557</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162557</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.2742405590021</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>258.2887055398002</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>25.92408657432691</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>43.93220641605622</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>258.4978630555177</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>51.96789352643424</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27776,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>84.92445961988186</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>252.683841989771</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>148.3243698681919</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>312.1559061278482</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>93.87332826683613</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>106.1602434532944</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -29329,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-8.467341030740874e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>464.2301581780508</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>10.81557123941136</v>
       </c>
       <c r="O3" t="n">
-        <v>352.3878357835378</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34860,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>40.86389160198001</v>
+        <v>257.7498804745138</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.0137127175907</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>435.2356237478844</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>40.86389160198001</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35106,7 +35108,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35173,25 +35175,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>419.1474984608589</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35343,10 +35345,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>335.144719185054</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>128.2829598391535</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>166.733782887006</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374939</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>114.6895782665901</v>
       </c>
       <c r="M12" t="n">
-        <v>75.65275927321696</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>27.96547785678535</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>200.7306752811506</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>205.0592278086265</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366113</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>811.4841868477985</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8052598432935</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>898.8580933463641</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>540.8056218692396</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36367,19 +36369,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O24" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36601,19 +36603,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N26" t="n">
-        <v>844.8942246391501</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36841,19 +36843,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562006</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37081,10 +37083,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P32" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>928.4912652212506</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>200.7306752811506</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>86.8003148788559</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>83.23994392538575</v>
+        <v>636.2694253141665</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752669</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>548.1076711799178</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.1971664929786</v>
+        <v>102.3677538807722</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374939</v>
+        <v>754.4686772153661</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>480.6282456653784</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37859,7 +37861,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>352.727580240131</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>595.2046518540828</v>
       </c>
       <c r="L44" t="n">
-        <v>166.733782887006</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38096,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P45" t="n">
-        <v>241.6068718286346</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3286866.843060563</v>
+        <v>3286170.181855471</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114761</v>
+        <v>612367.946211476</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4918303.77788777</v>
+        <v>4918303.777887771</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>368.6701860279139</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -676,7 +676,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>95.62581518521282</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>128.7110357227442</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>72.84679600279988</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +904,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>100.4798455975265</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>355.634905317496</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1071,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>26.21051072828035</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1144,16 +1144,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>146.5653248725136</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>96.86449739519662</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1341,25 +1341,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>74.56036873922037</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>76.64068269426186</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.872939992494</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>58.31517967031825</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1584,19 +1584,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>107.587783061073</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446584</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1782,7 +1782,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1824,10 +1824,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>235.3585395425703</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>93.00023373564825</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1852,19 +1852,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.3990729342354</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2022,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>199.6236294303548</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>58.02960124414425</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>72.35285069471539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>65.77514329574886</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2529,7 +2529,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>233.0075049147208</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2715,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>75.33365464461274</v>
+        <v>245.437208201777</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2958,19 +2958,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>122.9177036806385</v>
+        <v>153.7099988646849</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3189,10 +3189,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429501</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>46.94411899011794</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068488</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3432,16 +3432,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>78.16614128474214</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>264.2433736030778</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>136.6601511077864</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,10 +3669,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -3711,25 +3711,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>108.3150987014993</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924929</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>141.0788638521097</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>123.9086344760396</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -4137,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>96.44420510686395</v>
+        <v>157.9346215313961</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>826.0424325316596</v>
+        <v>1285.356368572426</v>
       </c>
       <c r="C2" t="n">
-        <v>803.1821065853638</v>
+        <v>858.4556385857261</v>
       </c>
       <c r="D2" t="n">
-        <v>379.8894857703641</v>
+        <v>486.061511284803</v>
       </c>
       <c r="E2" t="n">
-        <v>357.9529499586257</v>
+        <v>60.08457143266055</v>
       </c>
       <c r="F2" t="n">
-        <v>336.86917218843</v>
+        <v>39.00079366246485</v>
       </c>
       <c r="G2" t="n">
-        <v>336.5705138182827</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231749</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231749</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231749</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="K2" t="n">
-        <v>38.70213529231749</v>
+        <v>517.6410595347471</v>
       </c>
       <c r="L2" t="n">
-        <v>517.6410595347463</v>
+        <v>977.228916131018</v>
       </c>
       <c r="M2" t="n">
-        <v>996.5799837771751</v>
+        <v>1456.167840373447</v>
       </c>
       <c r="N2" t="n">
-        <v>1475.518908019604</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="O2" t="n">
-        <v>1935.106764615874</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615874</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615874</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615874</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489015</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533648</v>
+        <v>1714.18119366051</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.45899013006</v>
+        <v>1714.18119366051</v>
       </c>
       <c r="V2" t="n">
-        <v>1254.867257619744</v>
+        <v>1714.18119366051</v>
       </c>
       <c r="W2" t="n">
-        <v>1254.867257619744</v>
+        <v>1714.18119366051</v>
       </c>
       <c r="X2" t="n">
-        <v>1247.187662827895</v>
+        <v>1302.461194828257</v>
       </c>
       <c r="Y2" t="n">
-        <v>841.8503927827857</v>
+        <v>1301.164328823552</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668196</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843244</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996094</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725466</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554507</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730548</v>
+        <v>92.07822853000795</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353644</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="I3" t="n">
-        <v>133.8657769972762</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="J3" t="n">
-        <v>405.5632662768672</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="K3" t="n">
-        <v>884.5021905192962</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="L3" t="n">
-        <v>1363.441114761725</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="M3" t="n">
-        <v>1842.380039004154</v>
+        <v>517.6410595347471</v>
       </c>
       <c r="N3" t="n">
-        <v>1853.087454531171</v>
+        <v>996.5799837771767</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.087454531171</v>
+        <v>1475.518908019606</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.087454531171</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.087454531171</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615874</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177129</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474807</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394444</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.16124653371</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366927</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.16252313359</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868823</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>422.2892318563599</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="C4" t="n">
-        <v>422.2892318563599</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="D4" t="n">
-        <v>422.2892318563599</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="E4" t="n">
-        <v>256.0810260092135</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="F4" t="n">
-        <v>256.0810260092135</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="G4" t="n">
-        <v>256.0810260092135</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="H4" t="n">
-        <v>112.2847575173679</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231749</v>
+        <v>38.70213529231754</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231749</v>
+        <v>96.19346351647556</v>
       </c>
       <c r="K4" t="n">
-        <v>265.2297364981547</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>520.4021181679234</v>
+        <v>677.4103860167336</v>
       </c>
       <c r="M4" t="n">
-        <v>911.5879131381741</v>
+        <v>784.5877828974151</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.07942401421</v>
+        <v>1162.079293773451</v>
       </c>
       <c r="O4" t="n">
-        <v>1644.507552693973</v>
+        <v>1517.507422453214</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615874</v>
+        <v>1808.106634375115</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615874</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615874</v>
+        <v>1888.06815130305</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615874</v>
+        <v>1717.933103822185</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841774</v>
+        <v>1717.933103822185</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.582968342079</v>
+        <v>1437.748655322489</v>
       </c>
       <c r="V4" t="n">
-        <v>1129.871500950107</v>
+        <v>1156.037187930518</v>
       </c>
       <c r="W4" t="n">
-        <v>855.0190971226205</v>
+        <v>881.1847841030312</v>
       </c>
       <c r="X4" t="n">
-        <v>612.4552005684255</v>
+        <v>638.6208875488363</v>
       </c>
       <c r="Y4" t="n">
-        <v>612.4552005684255</v>
+        <v>412.2781192385784</v>
       </c>
     </row>
     <row r="5">
@@ -4552,7 +4552,7 @@
         <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
         <v>79.69375467592363</v>
@@ -4573,16 +4573,16 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
         <v>1651.269438076291</v>
@@ -4594,22 +4594,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1745.630772103422</v>
+        <v>1798.123593847295</v>
       </c>
       <c r="V5" t="n">
-        <v>1745.630772103422</v>
+        <v>1798.123593847295</v>
       </c>
       <c r="W5" t="n">
-        <v>1349.239422403769</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X5" t="n">
-        <v>990.0122453153891</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y5" t="n">
         <v>988.7153793106835</v>
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>1145.829295018124</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O6" t="n">
-        <v>1145.829295018124</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.1145108219148</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>712.1419477008308</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>548.8251748276015</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>382.616968980455</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7551947550154</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875754</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1627.873579513855</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1353.021175686368</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1110.457279132173</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>884.1145108219148</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>716.912797718662</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C8" t="n">
-        <v>694.0524717723662</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>270.7598509573664</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>248.823315145628</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>227.7395373754323</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>227.440879005285</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,22 +4807,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W8" t="n">
-        <v>1145.737622806746</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X8" t="n">
-        <v>1138.058028014898</v>
+        <v>1455.701838756373</v>
       </c>
       <c r="Y8" t="n">
-        <v>732.720757969788</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>205.6899987133984</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L9" t="n">
-        <v>205.6899987133984</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M9" t="n">
-        <v>205.6899987133984</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>864.5940064405311</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>692.6214433194471</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
         <v>692.6214433194471</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2102.559135372559</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1859.219787598458</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1579.035339098763</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V10" t="n">
-        <v>1297.323871706792</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="W10" t="n">
-        <v>1297.323871706792</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>1054.759975152597</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>1054.759975152597</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5023,67 +5023,67 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>3313.894682672831</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>3313.894682672831</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>3313.894682672831</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L12" t="n">
-        <v>3427.437365156755</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M12" t="n">
-        <v>3427.437365156755</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N12" t="n">
-        <v>3427.437365156755</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="O12" t="n">
-        <v>4316.918643168226</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>742.8905159778161</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C13" t="n">
-        <v>742.8905159778161</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="D13" t="n">
-        <v>683.9862940886057</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E13" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F13" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G13" t="n">
         <v>345.8675501573982</v>
@@ -5199,10 +5199,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5232,19 +5232,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1713.528203906647</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1438.67580007916</v>
       </c>
       <c r="X13" t="n">
-        <v>742.8905159778161</v>
+        <v>1438.67580007916</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.8905159778161</v>
+        <v>1212.333031768902</v>
       </c>
     </row>
     <row r="14">
@@ -5266,19 +5266,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
@@ -5293,31 +5293,31 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>4090.576687723259</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>4798.855966881186</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
@@ -5360,16 +5360,16 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>971.931772215671</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L15" t="n">
-        <v>971.931772215671</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M15" t="n">
-        <v>971.931772215671</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N15" t="n">
-        <v>1364.825557038856</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O15" t="n">
         <v>1364.825557038856</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3874.107496910695</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>3702.134933789611</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D16" t="n">
-        <v>3538.818160916382</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E16" t="n">
-        <v>3372.609955069236</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F16" t="n">
-        <v>3200.748180843796</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G16" t="n">
-        <v>3034.491211138028</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>3034.491211138028</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>2934.722642878304</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>2992.213971102462</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>3218.7415723083</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>3573.430893602721</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>4824.7577092045</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U16" t="n">
-        <v>4544.573260704805</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V16" t="n">
-        <v>4306.837362176956</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="W16" t="n">
-        <v>4306.837362176956</v>
+        <v>1618.213701196326</v>
       </c>
       <c r="X16" t="n">
-        <v>4064.273465622761</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="Y16" t="n">
-        <v>4064.273465622761</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177543</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1828.971033901635</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
         <v>1828.971033901635</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5709,16 +5709,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1589.056897064296</v>
+        <v>1387.416867336665</v>
       </c>
       <c r="W19" t="n">
-        <v>1589.056897064296</v>
+        <v>1112.564463509178</v>
       </c>
       <c r="X19" t="n">
-        <v>1346.493000510101</v>
+        <v>1112.564463509178</v>
       </c>
       <c r="Y19" t="n">
-        <v>1346.493000510101</v>
+        <v>1112.564463509178</v>
       </c>
     </row>
     <row r="20">
@@ -5740,43 +5740,43 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.1502575345799</v>
+        <v>776.7012749360533</v>
       </c>
       <c r="C22" t="n">
-        <v>747.5344987021109</v>
+        <v>604.7287118149693</v>
       </c>
       <c r="D22" t="n">
-        <v>584.2177258288816</v>
+        <v>441.41193894174</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>441.41193894174</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>441.41193894174</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>275.1549692359721</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1435.773908512572</v>
       </c>
       <c r="X22" t="n">
-        <v>1032.493025844838</v>
+        <v>1193.210011958377</v>
       </c>
       <c r="Y22" t="n">
-        <v>806.1502575345799</v>
+        <v>966.867243648119</v>
       </c>
     </row>
     <row r="23">
@@ -5989,22 +5989,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
         <v>5115.135670291427</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>4362.434577686964</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>850.3052888313966</v>
+        <v>1085.666404906872</v>
       </c>
       <c r="C25" t="n">
-        <v>678.3327257103126</v>
+        <v>913.6938417857882</v>
       </c>
       <c r="D25" t="n">
-        <v>678.3327257103126</v>
+        <v>750.3770689125589</v>
       </c>
       <c r="E25" t="n">
-        <v>512.1245198631661</v>
+        <v>584.1688630654124</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>412.3070888399728</v>
       </c>
       <c r="G25" t="n">
         <v>345.8675501573982</v>
@@ -6177,22 +6177,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1877.219577262616</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U25" t="n">
-        <v>1597.035128762921</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V25" t="n">
-        <v>1315.323661370949</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W25" t="n">
-        <v>1040.471257543462</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X25" t="n">
-        <v>1040.471257543462</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="Y25" t="n">
-        <v>1040.471257543462</v>
+        <v>1275.832373618938</v>
       </c>
     </row>
     <row r="26">
@@ -6235,16 +6235,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6302,19 +6302,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3580.065217070226</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="C28" t="n">
-        <v>3408.092653949142</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D28" t="n">
-        <v>3244.775881075912</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E28" t="n">
-        <v>3244.775881075912</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
-        <v>3244.775881075912</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>3078.518911370144</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>4871.796322517327</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>4795.701721866203</v>
+        <v>1621.324973643005</v>
       </c>
       <c r="V28" t="n">
-        <v>4513.990254474232</v>
+        <v>1621.324973643005</v>
       </c>
       <c r="W28" t="n">
-        <v>4239.137850646744</v>
+        <v>1346.472569815518</v>
       </c>
       <c r="X28" t="n">
-        <v>3996.573954092549</v>
+        <v>1103.908673261323</v>
       </c>
       <c r="Y28" t="n">
-        <v>3770.231185782291</v>
+        <v>1103.908673261323</v>
       </c>
     </row>
     <row r="29">
@@ -6481,7 +6481,7 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4935.721337874071</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>603.8490191059097</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>2001.004273426986</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1726.151869599499</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>830.1917874161677</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>603.8490191059097</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6776,28 +6776,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427964</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="C34" t="n">
-        <v>2986.82914530688</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878299</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450287</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140029</v>
+        <v>865.607261448461</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6928,7 +6928,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6937,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q35" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T35" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>109.7493563677404</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M36" t="n">
-        <v>109.7493563677404</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N36" t="n">
-        <v>1199.06430284061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1199.06430284061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>516.5477476675582</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C37" t="n">
-        <v>344.5751845464741</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D37" t="n">
-        <v>181.2584116732448</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7125,22 +7125,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1518.445132936602</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1275.881236382407</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7174,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>292.0244587153427</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>1007.532766690842</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>475.3442790273841</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
-        <v>475.3442790273841</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>847.4138558574792</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>675.4412927363952</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>2235.67712750613</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1953.965660114159</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7420,43 +7420,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2856.963518260712</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3833.214576747413</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J42" t="n">
         <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>730.647150085061</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M42" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1067.07923602298</v>
+        <v>374.0438447866366</v>
       </c>
       <c r="C43" t="n">
-        <v>895.1066729018962</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="D43" t="n">
-        <v>731.7899000286669</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="E43" t="n">
-        <v>565.5816941815204</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="F43" t="n">
-        <v>393.7199199560808</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="G43" t="n">
-        <v>227.462950250313</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7584,37 +7584,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656291</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025262</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251162</v>
       </c>
       <c r="U43" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751466</v>
       </c>
       <c r="V43" t="n">
-        <v>2001.004273426986</v>
+        <v>1260.306816359495</v>
       </c>
       <c r="W43" t="n">
-        <v>1726.151869599499</v>
+        <v>985.4544125320083</v>
       </c>
       <c r="X43" t="n">
-        <v>1483.587973045304</v>
+        <v>742.8905159778134</v>
       </c>
       <c r="Y43" t="n">
-        <v>1257.245204735046</v>
+        <v>516.5477476675554</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,7 +7636,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
         <v>435.0679631883225</v>
@@ -7651,25 +7651,25 @@
         <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>1054.158777558266</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1983.783825177543</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291426</v>
@@ -7690,7 +7690,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N45" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5554397491844</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C46" t="n">
-        <v>371.5828766281004</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="D46" t="n">
-        <v>371.5828766281004</v>
+        <v>405.6289026364581</v>
       </c>
       <c r="E46" t="n">
-        <v>274.1644876312681</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F46" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G46" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H46" t="n">
         <v>102.3027134058285</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.628073325703</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X46" t="n">
-        <v>960.064176771508</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y46" t="n">
-        <v>733.72140846125</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487786</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865915</v>
+        <v>502.5422006106743</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540534004</v>
+        <v>521.2079540534011</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884146</v>
+        <v>521.0563139884152</v>
       </c>
       <c r="O2" t="n">
-        <v>501.6211175340749</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873019</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681981</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662966</v>
+        <v>506.8734716662972</v>
       </c>
       <c r="N3" t="n">
-        <v>32.15859945295303</v>
+        <v>505.1197193675109</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761914</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>397.3979703494966</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>279.668640370215</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>130.835436740659</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,19 +8221,19 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480852</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>547.9365584046774</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8306,19 +8306,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>267.4386025673074</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>90.6511520067363</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>181.710741931019</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8531,10 +8531,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>177.6973456537768</v>
+        <v>542.3310383704943</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8546,7 +8546,7 @@
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8555,7 +8555,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8701,19 +8701,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>137.2046649808196</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>467.8471946375121</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q14" t="n">
-        <v>236.8553498857486</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9017,10 +9017,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>418.2054371258495</v>
+        <v>116.1889205166252</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804204</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>124.3756766890881</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9248,22 +9248,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>920.2011215599057</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635589</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>124.3756766890881</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,10 +9500,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9649,13 +9649,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9728,7 +9728,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574439</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9883,19 +9883,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>517.6546514635598</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>400.8313794692496</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>217.3512730059682</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,19 +10357,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10448,7 +10448,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10606,10 +10606,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798424</v>
       </c>
       <c r="R35" t="n">
-        <v>121.8329647736524</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>658.0402665189952</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>221.0580860608534</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602115997</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>125.4645343931002</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>791.8999401147979</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602115997</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,13 +11141,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>375.1268140734642</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11299,7 +11299,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>630.9692526488922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
@@ -11308,19 +11308,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>103.3684254741787</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>171.3065696569784</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>43.53581317548108</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>179.1036460535639</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.8652360907096</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>79.27072328769657</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>112.2232362457289</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>70.00545511221176</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>98.81925671296132</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>7.898449381638187</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>202.048949370086</v>
+        <v>31.94539581292176</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>117.2205539080144</v>
+        <v>86.42825872396804</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>110.098167740202</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25089,13 +25089,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>177.1352216370374</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>86.37998250393284</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>7.860506186134273</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>51.60415791715855</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>47.18544517283533</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>18.44967133088754</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>68.10191868181103</v>
+        <v>6.611502257278914</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530854</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530854</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530855</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530853</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530855</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>582442.6680111636</v>
+        <v>582442.6680111627</v>
       </c>
       <c r="C2" t="n">
-        <v>582442.6680111628</v>
+        <v>582442.6680111629</v>
       </c>
       <c r="D2" t="n">
         <v>582442.6680111629</v>
       </c>
       <c r="E2" t="n">
-        <v>562030.4031374475</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="F2" t="n">
         <v>562030.4031374473</v>
       </c>
       <c r="G2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374475</v>
       </c>
       <c r="H2" t="n">
-        <v>562030.4031374478</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="I2" t="n">
-        <v>562030.4031374468</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="J2" t="n">
-        <v>562030.4031374472</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="K2" t="n">
         <v>562030.4031374473</v>
       </c>
       <c r="L2" t="n">
-        <v>562030.4031374472</v>
+        <v>562030.4031374468</v>
       </c>
       <c r="M2" t="n">
-        <v>562030.4031374477</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="N2" t="n">
-        <v>562030.4031374477</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="O2" t="n">
-        <v>562030.4031374473</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="P2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374475</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695914</v>
+        <v>162124.6960695916</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361204</v>
+        <v>23406.83367361182</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802889</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701965</v>
+        <v>18646.60035701947</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551676</v>
+        <v>180063.8714551675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156089.064077723</v>
+        <v>156089.0640777228</v>
       </c>
       <c r="C4" t="n">
         <v>139507.7493322929</v>
@@ -26426,19 +26426,19 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>800.0602599433114</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="F4" t="n">
-        <v>800.0602599432362</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433113</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599432799</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="I4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
         <v>800.0602599433672</v>
@@ -26450,13 +26450,13 @@
         <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433669</v>
+        <v>800.060259943367</v>
       </c>
       <c r="N4" t="n">
         <v>800.060259943367</v>
       </c>
       <c r="O4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433669</v>
       </c>
       <c r="P4" t="n">
         <v>800.0602599433671</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216129</v>
+        <v>63041.22282216133</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,13 +26502,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
         <v>77750.06218842967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201187.6850416879</v>
+        <v>201187.6850416869</v>
       </c>
       <c r="C6" t="n">
-        <v>352081.8339678297</v>
+        <v>352081.8339678299</v>
       </c>
       <c r="D6" t="n">
         <v>375488.6676414418</v>
       </c>
       <c r="E6" t="n">
-        <v>267740.924132434</v>
+        <v>267689.8934702494</v>
       </c>
       <c r="F6" t="n">
-        <v>483480.2806890744</v>
+        <v>483429.25002689</v>
       </c>
       <c r="G6" t="n">
-        <v>483480.2806890744</v>
+        <v>483429.2500268903</v>
       </c>
       <c r="H6" t="n">
-        <v>483480.2806890748</v>
+        <v>483429.25002689</v>
       </c>
       <c r="I6" t="n">
-        <v>483480.2806890738</v>
+        <v>483429.2500268898</v>
       </c>
       <c r="J6" t="n">
-        <v>356903.0121087852</v>
+        <v>356851.9814466008</v>
       </c>
       <c r="K6" t="n">
-        <v>464833.6803320546</v>
+        <v>464782.6496698705</v>
       </c>
       <c r="L6" t="n">
-        <v>483480.2806890741</v>
+        <v>483429.2500268895</v>
       </c>
       <c r="M6" t="n">
-        <v>303416.409233907</v>
+        <v>303365.3785717226</v>
       </c>
       <c r="N6" t="n">
-        <v>483480.2806890747</v>
+        <v>483429.2500268901</v>
       </c>
       <c r="O6" t="n">
-        <v>483480.2806890743</v>
+        <v>483429.2500268901</v>
       </c>
       <c r="P6" t="n">
-        <v>483480.2806890744</v>
+        <v>483429.2500268903</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26822,13 +26822,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
         <v>1278.783917572857</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162557</v>
+        <v>72.45112196162489</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162557</v>
+        <v>72.45112196162489</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162557</v>
+        <v>72.45112196162489</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50.38950857893582</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>258.2887055398002</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.55327330220075</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -27545,7 +27545,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.92408657432691</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,10 +27624,10 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>155.2915147120253</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>51.96789352643424</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>252.683841989771</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27864,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>148.3243698681919</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>304.4193999494619</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>93.87332826683613</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>195.4631970949503</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30656,7 +30656,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-5.448550654941484e-13</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539686</v>
+        <v>464.2301581780514</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="O2" t="n">
-        <v>464.2301581780508</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539686</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539686</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="N3" t="n">
-        <v>10.81557123941136</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539692</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>375.6271291446679</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>257.7498804745138</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>108.2599968491732</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>510.5455990486534</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>510.5455990486533</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>67.9041137177578</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35251,10 +35251,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>155.2981118204434</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,7 +35266,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35421,19 +35421,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>114.6895782665901</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.7306752811506</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>396.8624089123078</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.1371666366113</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477976</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>86.80031487885682</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>898.8580933463641</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641272</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>86.80031487885682</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36369,13 +36369,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439022</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36603,19 +36603,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>480.2233885641281</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,19 +37077,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37326,10 +37326,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>62.4828257933862</v>
       </c>
       <c r="R35" t="n">
-        <v>86.8003148788559</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>636.2694253141665</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>191.6381265752669</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013684</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3677538807722</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>754.4686772153661</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013684</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>352.7275802401309</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37952,7 +37952,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977376</v>
       </c>
       <c r="P43" t="n">
         <v>293.5345574968697</v>
@@ -38019,7 +38019,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>595.2046518540828</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
@@ -38028,19 +38028,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
